--- a/School.Financial/ReportSrc/withdrawreport.xlsx
+++ b/School.Financial/ReportSrc/withdrawreport.xlsx
@@ -123,7 +123,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,9 +144,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,40 +175,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -241,7 +250,7 @@
         <xdr:cNvPr id="4" name="Picture 18" descr="CURT">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -545,15 +554,15 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:J9"/>
+      <selection activeCell="A11" sqref="A11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -565,21 +574,21 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -591,7 +600,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -605,7 +614,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -614,18 +623,18 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>36526</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -641,7 +650,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -657,7 +666,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -669,101 +678,103 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A13" s="7">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>145600</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -775,49 +786,49 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -829,9 +840,9 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1"/>
@@ -843,9 +854,9 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1"/>
@@ -857,7 +868,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -869,43 +880,47 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="E26" s="8" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
